--- a/src/main/java/com/qa/hs/keyword/scenarios/hubspot_scenarios.xlsx
+++ b/src/main/java/com/qa/hs/keyword/scenarios/hubspot_scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500"/>
+    <workbookView windowWidth="20385" windowHeight="9405" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>test step</t>
   </si>
@@ -38,6 +38,12 @@
     <t>NA</t>
   </si>
   <si>
+    <t>maximize browser</t>
+  </si>
+  <si>
+    <t>maximize</t>
+  </si>
+  <si>
     <t>launch url</t>
   </si>
   <si>
@@ -95,10 +101,7 @@
     <t>get home page header text</t>
   </si>
   <si>
-    <t>className</t>
-  </si>
-  <si>
-    <t>private-page__title</t>
+    <t>//h1[@class='private-page__title']</t>
   </si>
   <si>
     <t>getText</t>
@@ -130,10 +133,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -175,11 +178,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,54 +230,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,67 +284,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,115 +348,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,61 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,17 +569,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -588,15 +580,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,160 +613,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1104,135 +1107,135 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="23.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="25.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
     <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" spans="1:5">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" s="4" customFormat="1" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -1240,43 +1243,60 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="E9" t="s">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="naveenanimation20@gmail.com" tooltip="mailto:naveenanimation20@gmail.com"/>
-    <hyperlink ref="E3" r:id="rId2" display="http://app.hubspot.com/login" tooltip="http://app.hubspot.com/login"/>
-    <hyperlink ref="E5" r:id="rId3" display="Test@1234"/>
+    <hyperlink ref="E5" r:id="rId1" display="naveenanimation20@gmail.com" tooltip="mailto:naveenanimation20@gmail.com"/>
+    <hyperlink ref="E4" r:id="rId2" display="http://app.hubspot.com/login" tooltip="http://app.hubspot.com/login"/>
+    <hyperlink ref="E6" r:id="rId3" display="Test@1234" tooltip="mailto:Test@1234"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1286,13 +1306,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="11.6666666666667" customWidth="1"/>
@@ -1302,93 +1322,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="http://app.hubspot.com/login"/>
+    <hyperlink ref="E4" r:id="rId1" display="http://app.hubspot.com/login"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
